--- a/acciones161.xlsx
+++ b/acciones161.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="271">
   <si>
     <t>No.</t>
   </si>
@@ -76,10 +76,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>21.22B</t>
-  </si>
-  <si>
-    <t>0.91%</t>
+    <t>21.59B</t>
+  </si>
+  <si>
+    <t>0.89%</t>
   </si>
   <si>
     <t>3.50%</t>
@@ -112,13 +112,13 @@
     <t>Nov 13/a</t>
   </si>
   <si>
-    <t>66.24</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>3,666,085</t>
+    <t>67.20</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
+    <t>1,976,515</t>
   </si>
   <si>
     <t>2</t>
@@ -127,7 +127,7 @@
     <t>AA</t>
   </si>
   <si>
-    <t>6.82B</t>
+    <t>6.75B</t>
   </si>
   <si>
     <t>-</t>
@@ -160,13 +160,13 @@
     <t>Oct 17/a</t>
   </si>
   <si>
-    <t>35.67</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>2,846,361</t>
+    <t>36.70</t>
+  </si>
+  <si>
+    <t>1.41%</t>
+  </si>
+  <si>
+    <t>6,885,473</t>
   </si>
   <si>
     <t>3</t>
@@ -175,13 +175,13 @@
     <t>AAAU</t>
   </si>
   <si>
-    <t>12.20</t>
-  </si>
-  <si>
-    <t>-0.25%</t>
-  </si>
-  <si>
-    <t>20,347</t>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>-0.16%</t>
+  </si>
+  <si>
+    <t>7,513</t>
   </si>
   <si>
     <t>4</t>
@@ -190,7 +190,7 @@
     <t>AABA</t>
   </si>
   <si>
-    <t>37.92B</t>
+    <t>36.79B</t>
   </si>
   <si>
     <t>8.60%</t>
@@ -202,13 +202,13 @@
     <t>54.90%</t>
   </si>
   <si>
-    <t>61.98</t>
-  </si>
-  <si>
-    <t>3.42%</t>
-  </si>
-  <si>
-    <t>6,631,477</t>
+    <t>62.19</t>
+  </si>
+  <si>
+    <t>-1.02%</t>
+  </si>
+  <si>
+    <t>5,962,796</t>
   </si>
   <si>
     <t>5</t>
@@ -217,7 +217,7 @@
     <t>AAC</t>
   </si>
   <si>
-    <t>171.69M</t>
+    <t>168.94M</t>
   </si>
   <si>
     <t>-4.50%</t>
@@ -247,13 +247,13 @@
     <t>Oct 31/a</t>
   </si>
   <si>
-    <t>6.92</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>168,469</t>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>-0.29%</t>
+  </si>
+  <si>
+    <t>138,774</t>
   </si>
   <si>
     <t>6</t>
@@ -262,16 +262,16 @@
     <t>AADR</t>
   </si>
   <si>
-    <t>0.84%</t>
-  </si>
-  <si>
-    <t>48.71</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>25,445</t>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>49.91</t>
+  </si>
+  <si>
+    <t>-0.83%</t>
+  </si>
+  <si>
+    <t>13,923</t>
   </si>
   <si>
     <t>7</t>
@@ -280,10 +280,10 @@
     <t>AAL</t>
   </si>
   <si>
-    <t>14.81B</t>
-  </si>
-  <si>
-    <t>1.29%</t>
+    <t>15.50B</t>
+  </si>
+  <si>
+    <t>1.20%</t>
   </si>
   <si>
     <t>3.10%</t>
@@ -313,13 +313,13 @@
     <t>Oct 25/b</t>
   </si>
   <si>
-    <t>30.91</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>12,850,088</t>
+    <t>33.57</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>15,012,862</t>
   </si>
   <si>
     <t>8</t>
@@ -328,7 +328,7 @@
     <t>AAMC</t>
   </si>
   <si>
-    <t>82.72M</t>
+    <t>82.52M</t>
   </si>
   <si>
     <t>-16.90%</t>
@@ -349,13 +349,13 @@
     <t>Nov 08/b</t>
   </si>
   <si>
-    <t>51.70</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>2,811</t>
+    <t>49.95</t>
+  </si>
+  <si>
+    <t>-4.37%</t>
+  </si>
+  <si>
+    <t>1,904</t>
   </si>
   <si>
     <t>9</t>
@@ -364,10 +364,10 @@
     <t>AAME</t>
   </si>
   <si>
-    <t>55.72M</t>
-  </si>
-  <si>
-    <t>0.73%</t>
+    <t>58.75M</t>
+  </si>
+  <si>
+    <t>0.69%</t>
   </si>
   <si>
     <t>0.30%</t>
@@ -388,16 +388,13 @@
     <t>0.60%</t>
   </si>
   <si>
-    <t>Aug 20/a</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>-0.72%</t>
-  </si>
-  <si>
-    <t>18,022</t>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.43%</t>
+  </si>
+  <si>
+    <t>2,212</t>
   </si>
   <si>
     <t>10</t>
@@ -406,10 +403,10 @@
     <t>AAN</t>
   </si>
   <si>
-    <t>3.44B</t>
-  </si>
-  <si>
-    <t>0.24%</t>
+    <t>3.60B</t>
+  </si>
+  <si>
+    <t>0.23%</t>
   </si>
   <si>
     <t>11.10%</t>
@@ -427,13 +424,13 @@
     <t>93.60%</t>
   </si>
   <si>
-    <t>49.87</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>520,285</t>
+    <t>50.46</t>
+  </si>
+  <si>
+    <t>-2.25%</t>
+  </si>
+  <si>
+    <t>740,217</t>
   </si>
   <si>
     <t>11</t>
@@ -442,7 +439,7 @@
     <t>AAOI</t>
   </si>
   <si>
-    <t>461.84M</t>
+    <t>442.16M</t>
   </si>
   <si>
     <t>7.70%</t>
@@ -478,13 +475,13 @@
     <t>Nov 07/a</t>
   </si>
   <si>
-    <t>22.92</t>
-  </si>
-  <si>
-    <t>4.09%</t>
-  </si>
-  <si>
-    <t>971,491</t>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>468,910</t>
   </si>
   <si>
     <t>12</t>
@@ -493,7 +490,10 @@
     <t>AAON</t>
   </si>
   <si>
-    <t>1.69B</t>
+    <t>1.71B</t>
+  </si>
+  <si>
+    <t>0.98%</t>
   </si>
   <si>
     <t>15.10%</t>
@@ -526,13 +526,13 @@
     <t>Nov 01/b</t>
   </si>
   <si>
-    <t>31.89</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>211,641</t>
+    <t>32.66</t>
+  </si>
+  <si>
+    <t>-0.37%</t>
+  </si>
+  <si>
+    <t>129,055</t>
   </si>
   <si>
     <t>13</t>
@@ -541,10 +541,10 @@
     <t>AAP</t>
   </si>
   <si>
-    <t>12.22B</t>
-  </si>
-  <si>
-    <t>0.15%</t>
+    <t>12.47B</t>
+  </si>
+  <si>
+    <t>0.14%</t>
   </si>
   <si>
     <t>15.50%</t>
@@ -568,13 +568,13 @@
     <t>Nov 13/b</t>
   </si>
   <si>
-    <t>165.12</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>1,096,358</t>
+    <t>159.58</t>
+  </si>
+  <si>
+    <t>-5.22%</t>
+  </si>
+  <si>
+    <t>1,959,296</t>
   </si>
   <si>
     <t>14</t>
@@ -583,7 +583,7 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>1090.47B</t>
+    <t>1084.57B</t>
   </si>
   <si>
     <t>1.31%</t>
@@ -619,13 +619,13 @@
     <t>Nov 01/a</t>
   </si>
   <si>
-    <t>222.11</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>39,446,813</t>
+    <t>221.19</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>22,439,406</t>
   </si>
   <si>
     <t>15</t>
@@ -634,10 +634,10 @@
     <t>AAT</t>
   </si>
   <si>
-    <t>1.66B</t>
-  </si>
-  <si>
-    <t>3.05%</t>
+    <t>1.76B</t>
+  </si>
+  <si>
+    <t>2.93%</t>
   </si>
   <si>
     <t>2.30%</t>
@@ -658,13 +658,13 @@
     <t>Oct 30/a</t>
   </si>
   <si>
-    <t>35.46</t>
-  </si>
-  <si>
-    <t>-1.23%</t>
-  </si>
-  <si>
-    <t>264,265</t>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>-0.76%</t>
+  </si>
+  <si>
+    <t>105,104</t>
   </si>
   <si>
     <t>16</t>
@@ -673,7 +673,7 @@
     <t>AAU</t>
   </si>
   <si>
-    <t>54.84M</t>
+    <t>67.48M</t>
   </si>
   <si>
     <t>-7.20%</t>
@@ -688,10 +688,13 @@
     <t>Nov 08/a</t>
   </si>
   <si>
-    <t>-7.41%</t>
-  </si>
-  <si>
-    <t>374,608</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>-3.30%</t>
+  </si>
+  <si>
+    <t>150,676</t>
   </si>
   <si>
     <t>17</t>
@@ -700,7 +703,7 @@
     <t>AAWW</t>
   </si>
   <si>
-    <t>1.41B</t>
+    <t>1.38B</t>
   </si>
   <si>
     <t>10.00%</t>
@@ -727,13 +730,13 @@
     <t>7.20%</t>
   </si>
   <si>
-    <t>53.13</t>
-  </si>
-  <si>
-    <t>2.02%</t>
-  </si>
-  <si>
-    <t>443,162</t>
+    <t>53.58</t>
+  </si>
+  <si>
+    <t>-0.41%</t>
+  </si>
+  <si>
+    <t>183,863</t>
   </si>
   <si>
     <t>18</t>
@@ -742,16 +745,13 @@
     <t>AAXJ</t>
   </si>
   <si>
-    <t>2.37%</t>
-  </si>
-  <si>
-    <t>64.98</t>
-  </si>
-  <si>
-    <t>2.72%</t>
-  </si>
-  <si>
-    <t>2,205,171</t>
+    <t>64.71</t>
+  </si>
+  <si>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>604,154</t>
   </si>
   <si>
     <t>19</t>
@@ -760,6 +760,9 @@
     <t>AAXN</t>
   </si>
   <si>
+    <t>3.41B</t>
+  </si>
+  <si>
     <t>4.60%</t>
   </si>
   <si>
@@ -784,13 +787,13 @@
     <t>Nov 06/a</t>
   </si>
   <si>
-    <t>58.86</t>
-  </si>
-  <si>
-    <t>4.75%</t>
-  </si>
-  <si>
-    <t>701,724</t>
+    <t>61.65</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>521,969</t>
   </si>
   <si>
     <t>20</t>
@@ -802,7 +805,7 @@
     <t>2.89B</t>
   </si>
   <si>
-    <t>9.25%</t>
+    <t>8.85%</t>
   </si>
   <si>
     <t>15.70%</t>
@@ -817,13 +820,13 @@
     <t>Oct 24/b</t>
   </si>
   <si>
-    <t>29.20</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>489,312</t>
+    <t>30.65</t>
+  </si>
+  <si>
+    <t>0.49%</t>
+  </si>
+  <si>
+    <t>371,274</t>
   </si>
 </sst>
 </file>
@@ -1694,136 +1697,136 @@
         <v>123</v>
       </c>
       <c r="FU1" t="s">
+        <v>31</v>
+      </c>
+      <c r="FV1" t="s">
         <v>124</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>125</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>126</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>127</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>128</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GA1" t="s">
         <v>129</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GB1" t="s">
         <v>130</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GC1" t="s">
         <v>131</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GD1" t="s">
         <v>132</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GE1" t="s">
         <v>133</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GF1" t="s">
+        <v>38</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="GH1" t="s">
         <v>134</v>
       </c>
-      <c r="GF1" t="s">
-        <v>38</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="GH1" t="s">
+      <c r="GI1" t="s">
+        <v>134</v>
+      </c>
+      <c r="GJ1" t="s">
         <v>135</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>135</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>136</v>
       </c>
       <c r="GK1" t="s">
         <v>23</v>
       </c>
       <c r="GL1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="GM1" t="s">
         <v>98</v>
       </c>
       <c r="GN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="GO1" t="s">
         <v>137</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GP1" t="s">
         <v>138</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GQ1" t="s">
         <v>139</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GR1" t="s">
         <v>140</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GS1" t="s">
         <v>141</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GT1" t="s">
+        <v>38</v>
+      </c>
+      <c r="GU1" t="s">
         <v>142</v>
       </c>
-      <c r="GT1" t="s">
-        <v>38</v>
-      </c>
-      <c r="GU1" t="s">
+      <c r="GV1" t="s">
         <v>143</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GW1" t="s">
         <v>144</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GX1" t="s">
         <v>145</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GY1" t="s">
         <v>146</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="GZ1" t="s">
         <v>147</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HA1" t="s">
         <v>148</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HB1" t="s">
         <v>149</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HC1" t="s">
         <v>150</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HD1" t="s">
         <v>151</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HE1" t="s">
         <v>152</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HF1" t="s">
         <v>153</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HG1" t="s">
         <v>154</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HH1" t="s">
         <v>155</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HI1" t="s">
         <v>156</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HJ1" t="s">
         <v>157</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HK1" t="s">
         <v>158</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HL1" t="s">
         <v>159</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>119</v>
       </c>
       <c r="HM1" t="s">
         <v>160</v>
@@ -2075,22 +2078,22 @@
         <v>223</v>
       </c>
       <c r="KR1" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="KS1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="KT1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="KU1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="KV1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="KW1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="KX1" t="s">
         <v>38</v>
@@ -2099,55 +2102,55 @@
         <v>22</v>
       </c>
       <c r="KZ1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="LA1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="LB1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="LC1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="LD1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="LE1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="LF1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="LG1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="LH1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="LI1" t="s">
         <v>169</v>
       </c>
       <c r="LJ1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="LK1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="LL1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="LM1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="LN1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="LO1" t="s">
         <v>38</v>
       </c>
       <c r="LP1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="LQ1" t="s">
         <v>38</v>
@@ -2198,25 +2201,25 @@
         <v>247</v>
       </c>
       <c r="MG1" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="MH1" t="s">
         <v>38</v>
       </c>
       <c r="MI1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="MJ1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="MK1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="ML1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="MM1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="MN1" t="s">
         <v>165</v>
@@ -2225,43 +2228,43 @@
         <v>165</v>
       </c>
       <c r="MP1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="MQ1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="MR1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="MS1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="MT1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="MU1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="MV1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="MW1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="MX1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="MY1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="MZ1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="NA1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="NB1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="NC1" t="s">
         <v>160</v>
@@ -2282,22 +2285,22 @@
         <v>38</v>
       </c>
       <c r="NI1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="NJ1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="NK1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NL1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="NM1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="NN1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:378">
@@ -2792,142 +2795,142 @@
         <v>123</v>
       </c>
       <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" t="s">
         <v>124</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>126</v>
-      </c>
-      <c r="R10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:378">
       <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
         <v>128</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>131</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>132</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>133</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
         <v>134</v>
       </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" t="s">
-        <v>136</v>
       </c>
       <c r="M11" t="s">
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
         <v>98</v>
       </c>
       <c r="P11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q11" t="s">
         <v>137</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>138</v>
-      </c>
-      <c r="R11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:378">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
         <v>140</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>142</v>
       </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>143</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>144</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>145</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>146</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>147</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>148</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>149</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>150</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>151</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>152</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>153</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>155</v>
-      </c>
-      <c r="R12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:378">
       <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
         <v>157</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>158</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>159</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
       </c>
       <c r="E13" t="s">
         <v>160</v>
@@ -3187,24 +3190,24 @@
         <v>223</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="Q17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
@@ -3213,57 +3216,57 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O18" t="s">
         <v>169</v>
       </c>
       <c r="P18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -3316,25 +3319,25 @@
         <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J20" t="s">
         <v>165</v>
@@ -3343,45 +3346,45 @@
         <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G21" t="s">
         <v>160</v>
@@ -3402,22 +3405,22 @@
         <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
